--- a/Конфигурация.xlsx
+++ b/Конфигурация.xlsx
@@ -5,17 +5,33 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AnalyticsData\Побудей\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\V.Pobudei\Sherpa-projects\ChartApacheSuperset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B20BBF9-31CD-4394-8AFC-30CC004D7861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D762878-EE4E-4419-BE76-371CA4A59DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22890" yWindow="2115" windowWidth="21495" windowHeight="11340" xr2:uid="{F25D9E0C-6554-49DC-8F98-5E22B2A9148B}"/>
+    <workbookView xWindow="6165" yWindow="2655" windowWidth="21600" windowHeight="11385" xr2:uid="{F25D9E0C-6554-49DC-8F98-5E22B2A9148B}"/>
   </bookViews>
   <sheets>
     <sheet name="Авторизация" sheetId="2" r:id="rId1"/>
-    <sheet name="17201 датасет" sheetId="1" r:id="rId2"/>
-    <sheet name="17202 датасет" sheetId="3" r:id="rId3"/>
+    <sheet name="ACTIVITY" sheetId="7" r:id="rId2"/>
+    <sheet name="branch" sheetId="5" r:id="rId3"/>
+    <sheet name="INSTR" sheetId="8" r:id="rId4"/>
+    <sheet name="STATUS" sheetId="12" r:id="rId5"/>
+    <sheet name="UNIT" sheetId="6" r:id="rId6"/>
+    <sheet name="K1" sheetId="9" r:id="rId7"/>
+    <sheet name="K2" sheetId="10" r:id="rId8"/>
+    <sheet name="К3" sheetId="13" r:id="rId9"/>
+    <sheet name="К4" sheetId="14" r:id="rId10"/>
+    <sheet name="К5" sheetId="15" r:id="rId11"/>
+    <sheet name="К6" sheetId="16" r:id="rId12"/>
+    <sheet name="K7" sheetId="11" r:id="rId13"/>
+    <sheet name="К8" sheetId="17" r:id="rId14"/>
+    <sheet name="К9" sheetId="18" r:id="rId15"/>
+    <sheet name="К10" sheetId="19" r:id="rId16"/>
+    <sheet name="К11" sheetId="20" r:id="rId17"/>
+    <sheet name="17201 датасет" sheetId="1" r:id="rId18"/>
+    <sheet name="17202 датасет" sheetId="3" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,10 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
-  <si>
-    <t>d:\AnalyticsData\17201 датасет — копия.csv</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="121">
   <si>
     <t>Имя таблицы</t>
   </si>
@@ -80,9 +93,6 @@
     <t>Список столбцов, которые должны быть интерпретированы как даты</t>
   </si>
   <si>
-    <t>дата</t>
-  </si>
-  <si>
     <t>нет</t>
   </si>
   <si>
@@ -180,6 +190,222 @@
   </si>
   <si>
     <t>K.Korobina@nbrb.by</t>
+  </si>
+  <si>
+    <t>d:\AnalyticsData\INSTR.csv</t>
+  </si>
+  <si>
+    <t>["Код вида инструмента кредита (депозита)","Наименование вида инструмента  кредита (депозита)"]</t>
+  </si>
+  <si>
+    <t>{"Код вида инструмента кредита (депозита)":"int8","Наименование вида инструмента  кредита (депозита)":"str"}</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>d:\AnalyticsData\branch.csv</t>
+  </si>
+  <si>
+    <t>["Код банка","Наименование"]</t>
+  </si>
+  <si>
+    <t>{"Код банка":"int16","Наименование":"str"}</t>
+  </si>
+  <si>
+    <t>\\ias\file_share\17201.zip</t>
+  </si>
+  <si>
+    <t>\\ias\file_share\17202.zip</t>
+  </si>
+  <si>
+    <t>путь для хранения</t>
+  </si>
+  <si>
+    <t>d:\AnalyticsData\</t>
+  </si>
+  <si>
+    <t>["Код вида ед измерения","Наименование вида ед измерения"]</t>
+  </si>
+  <si>
+    <t>{"Код вида ед измерения":"int8","Наименование вида ед измерения":"str"}</t>
+  </si>
+  <si>
+    <t>d:\AnalyticsData\UNIT.csv</t>
+  </si>
+  <si>
+    <t>d:\AnalyticsData\ACTIVITY.csv</t>
+  </si>
+  <si>
+    <t>ACTIVITY</t>
+  </si>
+  <si>
+    <t>UNIT</t>
+  </si>
+  <si>
+    <t>["Код основного вида экономической деятельности контрагента банка","Наименование"]</t>
+  </si>
+  <si>
+    <t>{"Код основного вида экономической деятельности контрагента банка":"int8","Наименование":"str"}</t>
+  </si>
+  <si>
+    <t>INSTR</t>
+  </si>
+  <si>
+    <t>d:\AnalyticsData\K1.csv</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>["Код валюты","Наименование"]</t>
+  </si>
+  <si>
+    <t>{"Код валюты":"int16","Наименование":"str"}</t>
+  </si>
+  <si>
+    <t>d:\AnalyticsData\K2.csv</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>["Код вида кредита/вида банковского вклада (депозита)","Наименование"]</t>
+  </si>
+  <si>
+    <t>{"Код вида кредита/вида банковского вклада (депозита)":"int8","Наименование":"str"}</t>
+  </si>
+  <si>
+    <t>d:\AnalyticsData\K7.csv</t>
+  </si>
+  <si>
+    <t>K7</t>
+  </si>
+  <si>
+    <t>["Код резидентства контрагента банка","Наименование"]</t>
+  </si>
+  <si>
+    <t>{"Код резидентства контрагента банка":"int8", "Наименование":"str"}</t>
+  </si>
+  <si>
+    <t>d:\AnalyticsData\STATUS.csv</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>["Код типа контрагента","Наименование типа контрагента"]</t>
+  </si>
+  <si>
+    <t>{"Код типа контрагента":"int8","Наименование типа контрагента":"str"}</t>
+  </si>
+  <si>
+    <t>d:\AnalyticsData\К3.csv</t>
+  </si>
+  <si>
+    <t>К3</t>
+  </si>
+  <si>
+    <t>["Код группы кредита / способа и цели привлечения денежных средств в банковский вклад (депозит)","Наименование"]</t>
+  </si>
+  <si>
+    <t>{"Код группы кредита / способа и цели привлечения денежных средств в банковский вклад (депозит)":"int16","Наименование":"str"}</t>
+  </si>
+  <si>
+    <t>d:\AnalyticsData\К4.csv</t>
+  </si>
+  <si>
+    <t>К4</t>
+  </si>
+  <si>
+    <t>["Код условий начисления и уплаты процентов по кредиту/банковскому вкладу (депозиту)","Наименование"]</t>
+  </si>
+  <si>
+    <t>{"Код условий начисления и уплаты процентов по кредиту/банковскому вкладу (депозиту)":"int16","Наименование":"str"}</t>
+  </si>
+  <si>
+    <t>d:\AnalyticsData\К5.csv</t>
+  </si>
+  <si>
+    <t>К5</t>
+  </si>
+  <si>
+    <t>["Код срока возврата","Наименование"]</t>
+  </si>
+  <si>
+    <t>{"Код срока возврата":"int16","Наименование":"str"}</t>
+  </si>
+  <si>
+    <t>d:\AnalyticsData\К6.csv</t>
+  </si>
+  <si>
+    <t>К6</t>
+  </si>
+  <si>
+    <t>["Код типа контрагента банка","Наименование"]</t>
+  </si>
+  <si>
+    <t>{"Код типа контрагента банка":"int16","Наименование":"str"}</t>
+  </si>
+  <si>
+    <t>d:\AnalyticsData\К8.csv</t>
+  </si>
+  <si>
+    <t>К8</t>
+  </si>
+  <si>
+    <t>["Код типа субъекта предпринимательства","Наименование"]</t>
+  </si>
+  <si>
+    <t>{"Код типа субъекта предпринимательства":"int16", "Наименование":"str"}</t>
+  </si>
+  <si>
+    <t>d:\AnalyticsData\К9.csv</t>
+  </si>
+  <si>
+    <t>К9</t>
+  </si>
+  <si>
+    <t>["Код типа сектора экономики контрагента банка","Наименование"]</t>
+  </si>
+  <si>
+    <t>{"Код типа сектора экономики контрагента банка":"int16","Наименование":"str"}</t>
+  </si>
+  <si>
+    <t>d:\AnalyticsData\К10.csv</t>
+  </si>
+  <si>
+    <t>К10</t>
+  </si>
+  <si>
+    <t>{"Код основного вида экономической деятельности контрагента банка":"str","Наименование":"str"}</t>
+  </si>
+  <si>
+    <t>d:\AnalyticsData\К11.csv</t>
+  </si>
+  <si>
+    <t>К11</t>
+  </si>
+  <si>
+    <t>["Код принадлежности контрагента банка к региону","Наименование"]</t>
+  </si>
+  <si>
+    <t>{"Код принадлежности контрагента банка к региону":"int8","Наименование":"str"}</t>
+  </si>
+  <si>
+    <t>d:\AnalyticsData\17201 датасет.csv</t>
+  </si>
+  <si>
+    <t>d:\AnalyticsData\17202 датасет.csv</t>
+  </si>
+  <si>
+    <t>17202 датасет</t>
+  </si>
+  <si>
+    <t>["branch","Инструмент","Контрагент (K6)","код валюты (K1)","код вида кредита/депозита (K2)","код группы кредита (K3)","код условий начисления и уплаты процентов по кредиту/депозиту (K4)","код срока возврата (K5)","код типа сектора экономики контрагента банка (K9)","Буква+расшифровка (К10)","дата","ед измерения","X1","ставка (Y1/Y2)","Y1 (числитель X2*X3*X4)","Y2 (знаменатель X2*X3)","Отклонение"]</t>
+  </si>
+  <si>
+    <t>{"branch":"int16","Инструмент":"int8","Контрагент (K6)":"int16","код валюты (K1)":"int16","код вида кредита/депозита (K2)":"Int8","код группы кредита (K3)":"Int16","код условий начисления и уплаты процентов по кредиту/депозиту (K4)":"Int16","код срока возврата (K5)":"Int16","код типа сектора экономики контрагента банка (K9)":"Int8","Буква+расшифровка (К10)":"str","ед измерения":"Int8","X1":"Float64","ставка (Y1/Y2)":"Float64","Y1 (числитель X2*X3*X4)":"Float64","Y2 (знаменатель X2*X3)":"Float64","Отклонение":"Float64"}</t>
   </si>
 </sst>
 </file>
@@ -557,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC31065-414C-4A2B-A256-C934F95630DF}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,47 +796,71 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>50</v>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>17201</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>17202</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -618,186 +868,1712 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{FF9E2DAC-1C9C-4864-ACE1-8AC7FC5071CC}"/>
     <hyperlink ref="B6" r:id="rId2" xr:uid="{469CECDA-30FE-44A4-9BD0-48D1E4E61C54}"/>
     <hyperlink ref="B7" r:id="rId3" xr:uid="{2197CB5D-2FC8-465C-998D-A3B38194CECB}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{C3DEF260-6581-449E-B835-C7A849A129E3}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{9C57C1DD-FBD2-4A9F-820F-5200780D57D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C1D59D0-F989-4ED5-BB9B-4751DF8A8C33}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A902C28E-5837-4A0C-AD91-8E1F866CAAD9}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5246D0-2C3A-4ED1-8E78-617A1BD6D06A}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F062C3A-D453-45E0-A17C-62B9DE95F522}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9D087E-0614-45E5-A8B2-5E95C5724AC1}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6077CD15-55B4-49AB-A00E-1E8EC521F7B0}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4706A616-B366-4606-9520-2DA9AFD78743}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAE3168-BBDF-41DF-824E-BC3BF0E0F32B}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02BDF97-5CC9-4346-9B3C-6E64B1474054}">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -805,12 +2581,394 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5E9C4F-9CCE-43C3-A5F1-527FB2F0AEE5}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC52A432-E69C-4B72-B231-C6F24E26C152}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -819,141 +2977,1335 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5E9C4F-9CCE-43C3-A5F1-527FB2F0AEE5}">
-  <dimension ref="A1:A25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7AD0F7-AA25-48CE-BD4E-C87F4068C127}">
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF2945F-20FE-4440-917C-09C237E635DF}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB58E4E6-728C-460F-9D8F-7DC16081B3D1}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61129565-9A77-470B-AB41-F5CF0831F1D3}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91238FC8-B213-4DA1-85EA-1D990C20225D}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7FD1169-6C14-471A-972F-230A38BA840D}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G14:G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C9DDA6-D47B-4067-A69A-289421639B4B}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Конфигурация.xlsx
+++ b/Конфигурация.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\V.Pobudei\Sherpa-projects\ChartApacheSuperset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D762878-EE4E-4419-BE76-371CA4A59DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE4FEB5-53A9-4C94-AD6F-8F3510B8D06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6165" yWindow="2655" windowWidth="21600" windowHeight="11385" xr2:uid="{F25D9E0C-6554-49DC-8F98-5E22B2A9148B}"/>
+    <workbookView xWindow="6165" yWindow="2370" windowWidth="21600" windowHeight="12405" activeTab="1" xr2:uid="{F25D9E0C-6554-49DC-8F98-5E22B2A9148B}"/>
   </bookViews>
   <sheets>
     <sheet name="Авторизация" sheetId="2" r:id="rId1"/>
@@ -785,7 +785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC31065-414C-4A2B-A256-C934F95630DF}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -2408,7 +2408,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2789,8 +2789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC52A432-E69C-4B72-B231-C6F24E26C152}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
